--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Col5a3-Sdc3.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Col5a3-Sdc3.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>3.389621</v>
+        <v>1.474805333333333</v>
       </c>
       <c r="H2">
-        <v>10.168863</v>
+        <v>4.424416</v>
       </c>
       <c r="I2">
-        <v>0.03896472133961391</v>
+        <v>0.0172046112235441</v>
       </c>
       <c r="J2">
-        <v>0.03896472133961391</v>
+        <v>0.0172046112235441</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>34.36078833333333</v>
+        <v>28.31444233333334</v>
       </c>
       <c r="N2">
-        <v>103.082365</v>
+        <v>84.94332700000001</v>
       </c>
       <c r="O2">
-        <v>0.28490270239021</v>
+        <v>0.2747173016130739</v>
       </c>
       <c r="P2">
-        <v>0.28490270239021</v>
+        <v>0.2747173016130739</v>
       </c>
       <c r="Q2">
-        <v>116.4700497112217</v>
+        <v>41.75829056355911</v>
       </c>
       <c r="R2">
-        <v>1048.230447400995</v>
+        <v>375.824615072032</v>
       </c>
       <c r="S2">
-        <v>0.01110115440753748</v>
+        <v>0.004726404370634043</v>
       </c>
       <c r="T2">
-        <v>0.01110115440753749</v>
+        <v>0.004726404370634041</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>3.389621</v>
+        <v>1.474805333333333</v>
       </c>
       <c r="H3">
-        <v>10.168863</v>
+        <v>4.424416</v>
       </c>
       <c r="I3">
-        <v>0.03896472133961391</v>
+        <v>0.0172046112235441</v>
       </c>
       <c r="J3">
-        <v>0.03896472133961391</v>
+        <v>0.0172046112235441</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>64.633847</v>
       </c>
       <c r="O3">
-        <v>0.17863732245739</v>
+        <v>0.2090339131726295</v>
       </c>
       <c r="P3">
-        <v>0.17863732245739</v>
+        <v>0.2090339131726295</v>
       </c>
       <c r="Q3">
-        <v>73.02808170066234</v>
+        <v>31.77411408981689</v>
       </c>
       <c r="R3">
-        <v>657.252735305961</v>
+        <v>285.967026808352</v>
       </c>
       <c r="S3">
-        <v>0.006960553490406954</v>
+        <v>0.003596347208671165</v>
       </c>
       <c r="T3">
-        <v>0.006960553490406954</v>
+        <v>0.003596347208671164</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>3.389621</v>
+        <v>1.474805333333333</v>
       </c>
       <c r="H4">
-        <v>10.168863</v>
+        <v>4.424416</v>
       </c>
       <c r="I4">
-        <v>0.03896472133961391</v>
+        <v>0.0172046112235441</v>
       </c>
       <c r="J4">
-        <v>0.03896472133961391</v>
+        <v>0.0172046112235441</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>4.668551</v>
+        <v>5.413469333333334</v>
       </c>
       <c r="N4">
-        <v>14.005653</v>
+        <v>16.240408</v>
       </c>
       <c r="O4">
-        <v>0.03870932131252083</v>
+        <v>0.0525235026743817</v>
       </c>
       <c r="P4">
-        <v>0.03870932131252085</v>
+        <v>0.0525235026743817</v>
       </c>
       <c r="Q4">
-        <v>15.824618509171</v>
+        <v>7.983813444636445</v>
       </c>
       <c r="R4">
-        <v>142.421566582539</v>
+        <v>71.85432100172801</v>
       </c>
       <c r="S4">
-        <v>0.001508297918187952</v>
+        <v>0.000903646443611516</v>
       </c>
       <c r="T4">
-        <v>0.001508297918187953</v>
+        <v>0.0009036464436115159</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>3.389621</v>
+        <v>1.474805333333333</v>
       </c>
       <c r="H5">
-        <v>10.168863</v>
+        <v>4.424416</v>
       </c>
       <c r="I5">
-        <v>0.03896472133961391</v>
+        <v>0.0172046112235441</v>
       </c>
       <c r="J5">
-        <v>0.03896472133961391</v>
+        <v>0.0172046112235441</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>60.03138866666666</v>
+        <v>47.79503400000001</v>
       </c>
       <c r="N5">
-        <v>180.094166</v>
+        <v>143.385102</v>
       </c>
       <c r="O5">
-        <v>0.4977506538398792</v>
+        <v>0.4637252825399149</v>
       </c>
       <c r="P5">
-        <v>0.4977506538398793</v>
+        <v>0.4637252825399149</v>
       </c>
       <c r="Q5">
-        <v>203.4836556836953</v>
+        <v>70.48837105004802</v>
       </c>
       <c r="R5">
-        <v>1831.352901153258</v>
+        <v>634.3953394504321</v>
       </c>
       <c r="S5">
-        <v>0.01939471552348151</v>
+        <v>0.007978213200627379</v>
       </c>
       <c r="T5">
-        <v>0.01939471552348152</v>
+        <v>0.007978213200627377</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>215.618885</v>
       </c>
       <c r="I6">
-        <v>0.8262014907254878</v>
+        <v>0.8384471733397276</v>
       </c>
       <c r="J6">
-        <v>0.8262014907254879</v>
+        <v>0.8384471733397275</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>34.36078833333333</v>
+        <v>28.31444233333334</v>
       </c>
       <c r="N6">
-        <v>103.082365</v>
+        <v>84.94332700000001</v>
       </c>
       <c r="O6">
-        <v>0.28490270239021</v>
+        <v>0.2747173016130739</v>
       </c>
       <c r="P6">
-        <v>0.28490270239021</v>
+        <v>0.2747173016130739</v>
       </c>
       <c r="Q6">
-        <v>2469.611622718113</v>
+        <v>2035.04282843671</v>
       </c>
       <c r="R6">
-        <v>22226.50460446302</v>
+        <v>18315.38545593039</v>
       </c>
       <c r="S6">
-        <v>0.2353870374265115</v>
+        <v>0.2303359450049992</v>
       </c>
       <c r="T6">
-        <v>0.2353870374265115</v>
+        <v>0.2303359450049992</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>215.618885</v>
       </c>
       <c r="I7">
-        <v>0.8262014907254878</v>
+        <v>0.8384471733397276</v>
       </c>
       <c r="J7">
-        <v>0.8262014907254879</v>
+        <v>0.8384471733397275</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>64.633847</v>
       </c>
       <c r="O7">
-        <v>0.17863732245739</v>
+        <v>0.2090339131726295</v>
       </c>
       <c r="P7">
-        <v>0.17863732245739</v>
+        <v>0.2090339131726295</v>
       </c>
       <c r="Q7">
         <v>1548.475335933399</v>
@@ -883,10 +883,10 @@
         <v>13936.27802340059</v>
       </c>
       <c r="S7">
-        <v>0.1475904221135053</v>
+        <v>0.1752638936317333</v>
       </c>
       <c r="T7">
-        <v>0.1475904221135053</v>
+        <v>0.1752638936317333</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>215.618885</v>
       </c>
       <c r="I8">
-        <v>0.8262014907254878</v>
+        <v>0.8384471733397276</v>
       </c>
       <c r="J8">
-        <v>0.8262014907254879</v>
+        <v>0.8384471733397275</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>4.668551</v>
+        <v>5.413469333333334</v>
       </c>
       <c r="N8">
-        <v>14.005653</v>
+        <v>16.240408</v>
       </c>
       <c r="O8">
-        <v>0.03870932131252083</v>
+        <v>0.0525235026743817</v>
       </c>
       <c r="P8">
-        <v>0.03870932131252085</v>
+        <v>0.0525235026743817</v>
       </c>
       <c r="Q8">
-        <v>335.5425870618783</v>
+        <v>389.0820738783422</v>
       </c>
       <c r="R8">
-        <v>3019.883283556905</v>
+        <v>3501.73866490508</v>
       </c>
       <c r="S8">
-        <v>0.0319816989733766</v>
+        <v>0.04403818235123697</v>
       </c>
       <c r="T8">
-        <v>0.03198169897337663</v>
+        <v>0.04403818235123696</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>215.618885</v>
       </c>
       <c r="I9">
-        <v>0.8262014907254878</v>
+        <v>0.8384471733397276</v>
       </c>
       <c r="J9">
-        <v>0.8262014907254879</v>
+        <v>0.8384471733397275</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>60.03138866666666</v>
+        <v>47.79503400000001</v>
       </c>
       <c r="N9">
-        <v>180.094166</v>
+        <v>143.385102</v>
       </c>
       <c r="O9">
-        <v>0.4977506538398792</v>
+        <v>0.4637252825399149</v>
       </c>
       <c r="P9">
-        <v>0.4977506538398793</v>
+        <v>0.4637252825399149</v>
       </c>
       <c r="Q9">
-        <v>4314.6336964361</v>
+        <v>3435.17064653903</v>
       </c>
       <c r="R9">
-        <v>38831.70326792491</v>
+        <v>30916.53581885127</v>
       </c>
       <c r="S9">
-        <v>0.4112423322120944</v>
+        <v>0.3888091523517582</v>
       </c>
       <c r="T9">
-        <v>0.4112423322120946</v>
+        <v>0.3888091523517581</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>11.68797133333334</v>
+        <v>12.33901866666667</v>
       </c>
       <c r="H10">
-        <v>35.063914</v>
+        <v>37.017056</v>
       </c>
       <c r="I10">
-        <v>0.1343567749989539</v>
+        <v>0.143943077938458</v>
       </c>
       <c r="J10">
-        <v>0.1343567749989539</v>
+        <v>0.143943077938458</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>34.36078833333333</v>
+        <v>28.31444233333334</v>
       </c>
       <c r="N10">
-        <v>103.082365</v>
+        <v>84.94332700000001</v>
       </c>
       <c r="O10">
-        <v>0.28490270239021</v>
+        <v>0.2747173016130739</v>
       </c>
       <c r="P10">
-        <v>0.28490270239021</v>
+        <v>0.2747173016130739</v>
       </c>
       <c r="Q10">
-        <v>401.6079090307345</v>
+        <v>349.3724324872569</v>
       </c>
       <c r="R10">
-        <v>3614.47118127661</v>
+        <v>3144.351892385312</v>
       </c>
       <c r="S10">
-        <v>0.03827860828163536</v>
+        <v>0.03954365395713357</v>
       </c>
       <c r="T10">
-        <v>0.03827860828163537</v>
+        <v>0.03954365395713356</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>11.68797133333334</v>
+        <v>12.33901866666667</v>
       </c>
       <c r="H11">
-        <v>35.063914</v>
+        <v>37.017056</v>
       </c>
       <c r="I11">
-        <v>0.1343567749989539</v>
+        <v>0.143943077938458</v>
       </c>
       <c r="J11">
-        <v>0.1343567749989539</v>
+        <v>0.143943077938458</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>64.633847</v>
       </c>
       <c r="O11">
-        <v>0.17863732245739</v>
+        <v>0.2090339131726295</v>
       </c>
       <c r="P11">
-        <v>0.17863732245739</v>
+        <v>0.2090339131726295</v>
       </c>
       <c r="Q11">
-        <v>251.8128502996843</v>
+        <v>265.8394148771591</v>
       </c>
       <c r="R11">
-        <v>2266.315652697158</v>
+        <v>2392.554733894432</v>
       </c>
       <c r="S11">
-        <v>0.02400113453982311</v>
+        <v>0.03008898485558867</v>
       </c>
       <c r="T11">
-        <v>0.02400113453982311</v>
+        <v>0.03008898485558866</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>11.68797133333334</v>
+        <v>12.33901866666667</v>
       </c>
       <c r="H12">
-        <v>35.063914</v>
+        <v>37.017056</v>
       </c>
       <c r="I12">
-        <v>0.1343567749989539</v>
+        <v>0.143943077938458</v>
       </c>
       <c r="J12">
-        <v>0.1343567749989539</v>
+        <v>0.143943077938458</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>4.668551</v>
+        <v>5.413469333333334</v>
       </c>
       <c r="N12">
-        <v>14.005653</v>
+        <v>16.240408</v>
       </c>
       <c r="O12">
-        <v>0.03870932131252083</v>
+        <v>0.0525235026743817</v>
       </c>
       <c r="P12">
-        <v>0.03870932131252085</v>
+        <v>0.0525235026743817</v>
       </c>
       <c r="Q12">
-        <v>54.56589025620467</v>
+        <v>66.79689915542757</v>
       </c>
       <c r="R12">
-        <v>491.0930123058421</v>
+        <v>601.172092398848</v>
       </c>
       <c r="S12">
-        <v>0.005200859573948571</v>
+        <v>0.007560394639059331</v>
       </c>
       <c r="T12">
-        <v>0.005200859573948573</v>
+        <v>0.00756039463905933</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>11.68797133333334</v>
+        <v>12.33901866666667</v>
       </c>
       <c r="H13">
-        <v>35.063914</v>
+        <v>37.017056</v>
       </c>
       <c r="I13">
-        <v>0.1343567749989539</v>
+        <v>0.143943077938458</v>
       </c>
       <c r="J13">
-        <v>0.1343567749989539</v>
+        <v>0.143943077938458</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>60.03138866666666</v>
+        <v>47.79503400000001</v>
       </c>
       <c r="N13">
-        <v>180.094166</v>
+        <v>143.385102</v>
       </c>
       <c r="O13">
-        <v>0.4977506538398792</v>
+        <v>0.4637252825399149</v>
       </c>
       <c r="P13">
-        <v>0.4977506538398793</v>
+        <v>0.4637252825399149</v>
       </c>
       <c r="Q13">
-        <v>701.6451498361916</v>
+        <v>589.7438166999681</v>
       </c>
       <c r="R13">
-        <v>6314.806348525724</v>
+        <v>5307.694350299712</v>
       </c>
       <c r="S13">
-        <v>0.06687617260354682</v>
+        <v>0.06675004448667642</v>
       </c>
       <c r="T13">
-        <v>0.06687617260354684</v>
+        <v>0.0667500444866764</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,22 +1275,22 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F14">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>0.04149633333333334</v>
+        <v>0.034729</v>
       </c>
       <c r="H14">
-        <v>0.124489</v>
+        <v>0.104187</v>
       </c>
       <c r="I14">
-        <v>0.0004770129359444803</v>
+        <v>0.0004051374982703682</v>
       </c>
       <c r="J14">
-        <v>0.0004770129359444803</v>
+        <v>0.0004051374982703681</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>34.36078833333333</v>
+        <v>28.31444233333334</v>
       </c>
       <c r="N14">
-        <v>103.082365</v>
+        <v>84.94332700000001</v>
       </c>
       <c r="O14">
-        <v>0.28490270239021</v>
+        <v>0.2747173016130739</v>
       </c>
       <c r="P14">
-        <v>0.28490270239021</v>
+        <v>0.2747173016130739</v>
       </c>
       <c r="Q14">
-        <v>1.425846726276111</v>
+        <v>0.9833322677943335</v>
       </c>
       <c r="R14">
-        <v>12.832620536485</v>
+        <v>8.849990410149001</v>
       </c>
       <c r="S14">
-        <v>0.0001359022745256706</v>
+        <v>0.000111298280307107</v>
       </c>
       <c r="T14">
-        <v>0.0001359022745256706</v>
+        <v>0.0001112982803071069</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,22 +1337,22 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F15">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>0.04149633333333334</v>
+        <v>0.034729</v>
       </c>
       <c r="H15">
-        <v>0.124489</v>
+        <v>0.104187</v>
       </c>
       <c r="I15">
-        <v>0.0004770129359444803</v>
+        <v>0.0004051374982703682</v>
       </c>
       <c r="J15">
-        <v>0.0004770129359444803</v>
+        <v>0.0004051374982703681</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>64.633847</v>
       </c>
       <c r="O15">
-        <v>0.17863732245739</v>
+        <v>0.2090339131726295</v>
       </c>
       <c r="P15">
-        <v>0.17863732245739</v>
+        <v>0.2090339131726295</v>
       </c>
       <c r="Q15">
-        <v>0.8940225532425558</v>
+        <v>0.7482229574876668</v>
       </c>
       <c r="R15">
-        <v>8.046202979183001</v>
+        <v>6.734006617389</v>
       </c>
       <c r="S15">
-        <v>8.521231365466044E-05</v>
+        <v>8.468747663642449E-05</v>
       </c>
       <c r="T15">
-        <v>8.521231365466044E-05</v>
+        <v>8.468747663642447E-05</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,22 +1399,22 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F16">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G16">
-        <v>0.04149633333333334</v>
+        <v>0.034729</v>
       </c>
       <c r="H16">
-        <v>0.124489</v>
+        <v>0.104187</v>
       </c>
       <c r="I16">
-        <v>0.0004770129359444803</v>
+        <v>0.0004051374982703682</v>
       </c>
       <c r="J16">
-        <v>0.0004770129359444803</v>
+        <v>0.0004051374982703681</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>4.668551</v>
+        <v>5.413469333333334</v>
       </c>
       <c r="N16">
-        <v>14.005653</v>
+        <v>16.240408</v>
       </c>
       <c r="O16">
-        <v>0.03870932131252083</v>
+        <v>0.0525235026743817</v>
       </c>
       <c r="P16">
-        <v>0.03870932131252085</v>
+        <v>0.0525235026743817</v>
       </c>
       <c r="Q16">
-        <v>0.1937277484796667</v>
+        <v>0.1880043764773334</v>
       </c>
       <c r="R16">
-        <v>1.743549736317</v>
+        <v>1.692039388296</v>
       </c>
       <c r="S16">
-        <v>1.846484700770381E-05</v>
+        <v>2.127924047389599E-05</v>
       </c>
       <c r="T16">
-        <v>1.846484700770381E-05</v>
+        <v>2.127924047389599E-05</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,22 +1461,22 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F17">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G17">
-        <v>0.04149633333333334</v>
+        <v>0.034729</v>
       </c>
       <c r="H17">
-        <v>0.124489</v>
+        <v>0.104187</v>
       </c>
       <c r="I17">
-        <v>0.0004770129359444803</v>
+        <v>0.0004051374982703682</v>
       </c>
       <c r="J17">
-        <v>0.0004770129359444803</v>
+        <v>0.0004051374982703681</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>60.03138866666666</v>
+        <v>47.79503400000001</v>
       </c>
       <c r="N17">
-        <v>180.094166</v>
+        <v>143.385102</v>
       </c>
       <c r="O17">
-        <v>0.4977506538398792</v>
+        <v>0.4637252825399149</v>
       </c>
       <c r="P17">
-        <v>0.4977506538398793</v>
+        <v>0.4637252825399149</v>
       </c>
       <c r="Q17">
-        <v>2.491082514574889</v>
+        <v>1.659873735786001</v>
       </c>
       <c r="R17">
-        <v>22.419742631174</v>
+        <v>14.938863622074</v>
       </c>
       <c r="S17">
-        <v>0.0002374335007564455</v>
+        <v>0.0001878725008529408</v>
       </c>
       <c r="T17">
-        <v>0.0002374335007564455</v>
+        <v>0.0001878725008529407</v>
       </c>
     </row>
   </sheetData>
